--- a/Week04/w4-2.xlsx
+++ b/Week04/w4-2.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/マイドライブ/Classroom/2022 2nd Semester/IntroStats/GitHub/IntroStats/Week04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yohkawano/Library/CloudStorage/GoogleDrive-ykawano@reitaku-u.ac.jp/My Drive/Classroom/2023 1st Semester/23-1-Reitaku-Stats/Week04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{999BF49C-AC2D-C44D-8545-F0694D5240C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88896ED4-A226-AB4E-8795-E185CACA6C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$K$7:$K$540</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$K$7:$K$540</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$B$2:$B$535</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$B$2:$B$535</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$B$2:$B$535</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$B$2:$B$535</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$8:$D$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$8:$C$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$8:$D$14</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$2:$B$535</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$A$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$2:$A$535</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$A$2:$A$535</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$A$2:$A$535</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$A$2:$A$535</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$A$2:$A$535</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$A$2:$A$535</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$A$2:$A$535</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Sheet1 (2)'!$J$7:$J$540</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>表4-3　二人以上世帯　世帯年間収入階級別　世帯数</t>
     <rPh sb="0" eb="1">
@@ -208,6 +199,39 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>表4-3　
+二人以上世帯　
+世帯年間収入階級別　世帯数</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カイキュウベツ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>セタイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -387,6 +411,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -394,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,10 +543,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,12 +580,491 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>二人以上世帯　世帯年間収入階級別　世帯数</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$8:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>200万円未満</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200-400万円未満</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400-600万円未満</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600-800万円未満</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800-1000万円未満</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000-1500万円未満</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500万円以上</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18E0-684B-8F9B-8C126482A17B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="687882368"/>
+        <c:axId val="279822304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="687882368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279822304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279822304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687882368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{507B4261-0ADE-4EE2-BECC-667A99BB5B9D}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
         <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{7FA1FF9B-E417-714B-95CF-F0A82856E5BC}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -515,6 +1133,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
@@ -1018,6 +1756,1491 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1072,8 +3295,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4743104" y="45373405"/>
-              <a:ext cx="4560454" cy="2804853"/>
+              <a:off x="0" y="45373405"/>
+              <a:ext cx="4083858" cy="2804853"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1093,14 +3316,216 @@
             <a:p>
               <a:r>
                 <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>この図は、お使いのバージョンの Excel では利用できません。
-この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067F6EC8-1FC5-9AA6-C4AA-DD27B8426CFD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6096000" y="111048800"/>
+              <a:ext cx="4991100" cy="3111500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>9005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108758</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>146858</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="グラフ 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD594BC-E64C-AD4F-B5FB-CBC68C2FAFD6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="45373405"/>
+              <a:ext cx="4083858" cy="2804853"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>670277</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91722</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77611</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F9D663-A95A-571D-1299-F0D6D528333E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1371,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="14"/>
@@ -1582,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E489AA-59E7-574C-8EE1-1C29BAEC1617}">
   <dimension ref="A1:A535"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -4269,5 +6694,111 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9CE728-2D84-F64B-B9D0-9DFBC382D7D7}">
+  <dimension ref="B3:C14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" style="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="1"/>
+    <col min="4" max="4" width="9.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="7.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="60">
+      <c r="B3" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="3" customHeight="1"/>
+    <row r="5" spans="2:3" ht="15" thickBot="1"/>
+    <row r="6" spans="2:3" ht="15">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
+        <f>SUM(C8:C14)</f>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="22">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="22">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15" thickBot="1">
+      <c r="B14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="23">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>